--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.008643299465423009</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.008004834304671997</v>
+        <v>0.008004834304671995</v>
       </c>
     </row>
     <row r="5">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009157541828297144</v>
+        <v>0.0101516725629691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01184265683695102</v>
+        <v>0.01309916335489657</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01271653906081092</v>
+        <v>0.01414630498593437</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009233800823371597</v>
+        <v>0.009202891243170374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005352457807241964</v>
+        <v>0.005199691737351218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01382725601761858</v>
+        <v>0.01354120192808944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01426813312330182</v>
+        <v>0.01381300792657224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00377637783138321</v>
+        <v>0.003604938740859714</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001727625530908421</v>
+        <v>0.001713365052954609</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03761137157761109</v>
+        <v>0.03918197905473098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04151835833683176</v>
+        <v>0.04328290874236759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01164104963880522</v>
+        <v>0.01233138766590598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04498178606491565</v>
+        <v>0.04598344655086886</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04323515987835985</v>
+        <v>0.04307507542150223</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04039775031721844</v>
+        <v>0.03783186101602183</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03105935626059955</v>
+        <v>0.03361540290631036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01511894700724937</v>
+        <v>0.02051051799874588</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03302016959233821</v>
+        <v>0.03456841515280569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03455971630019838</v>
+        <v>0.03415788235742022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01867311403088266</v>
+        <v>0.01714412354418163</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02368955260477036</v>
+        <v>0.0247913350209109</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005526799050863654</v>
+        <v>0.006047767478584679</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01283025940297942</v>
+        <v>0.01274913918517849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009780208898340447</v>
+        <v>0.00955217970111152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02412254337348728</v>
+        <v>0.02451511105410157</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01269003213526439</v>
+        <v>0.01314769543679044</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02730714599633783</v>
+        <v>0.02657371477583736</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007291759067068245</v>
+        <v>0.007157711252182321</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01886172498207918</v>
+        <v>0.01873251316376925</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0114608913250415</v>
+        <v>0.01122028750007999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.021961748008953</v>
+        <v>0.02284050651669232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01122149040188919</v>
+        <v>0.01078781902566551</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02512705448076638</v>
+        <v>0.02497364680162117</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02343639557382772</v>
+        <v>0.02312278810641179</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03765504214331845</v>
+        <v>0.03738652369778406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0323669882594182</v>
+        <v>0.03172302907800096</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07369869728956552</v>
+        <v>0.0764468212428233</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03951057003587841</v>
+        <v>0.04064047224496384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05811740420309762</v>
+        <v>0.06124467973400995</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02945039222598898</v>
+        <v>0.02947066456123253</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05340814309834976</v>
+        <v>0.05206204742795235</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02599824592107326</v>
+        <v>0.02665215665437694</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0421979955713003</v>
+        <v>0.04263101783949374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02641321919584243</v>
+        <v>0.02728300980139246</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05459971016002431</v>
+        <v>0.05619090933579043</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03114000007767836</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03013862811139409</v>
+        <v>0.03013862811139408</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02587625907285261</v>
+        <v>0.02650391626422985</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02626480709913299</v>
+        <v>0.0277159355763232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02107786881654306</v>
+        <v>0.02103936951617218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01876330126918193</v>
+        <v>0.01895663514692596</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02085525223230857</v>
+        <v>0.02153964757287147</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04890220775064011</v>
+        <v>0.04812828324233576</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01653614108531917</v>
+        <v>0.01721584131890356</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01984444087728996</v>
+        <v>0.01837479468034523</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0265133965619646</v>
+        <v>0.02758207018332058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04311655590215185</v>
+        <v>0.04258529639674404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02196981254493115</v>
+        <v>0.02116187034575804</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02176081537104498</v>
+        <v>0.02303600900100429</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05909884875529826</v>
+        <v>0.05910334363976642</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0584650447216486</v>
+        <v>0.05970039738430385</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05121028067239815</v>
+        <v>0.05102422109763314</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04909232600234197</v>
+        <v>0.04785399276419895</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04796027690239439</v>
+        <v>0.04793237563342545</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08873884190913361</v>
+        <v>0.089477855376452</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04366750815614391</v>
+        <v>0.04382606507942259</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04185210991926786</v>
+        <v>0.04232454174219032</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04849642719547196</v>
+        <v>0.04891505506054356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06791741212871082</v>
+        <v>0.06734721752369489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04311849185343174</v>
+        <v>0.04214329224318114</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04064435124726085</v>
+        <v>0.04042653091471909</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005795787891434931</v>
+        <v>0.005465155541113986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02677768071717598</v>
+        <v>0.02687138517594891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02730451856779202</v>
+        <v>0.0250757686003731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02876094147330243</v>
+        <v>0.02872887890263609</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02410284754477946</v>
+        <v>0.02562705805447864</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06438932689308619</v>
+        <v>0.06274844574777627</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04549935559663148</v>
+        <v>0.04575801982004484</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0370665552639743</v>
+        <v>0.03868244333196567</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01814335425962945</v>
+        <v>0.01893927453719193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04981346585644467</v>
+        <v>0.0500898843215746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03993377106156649</v>
+        <v>0.04078134621535022</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03664895579865741</v>
+        <v>0.03574368599926172</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03126238505918136</v>
+        <v>0.03026637424616574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06366859692154671</v>
+        <v>0.0631594254345703</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06204552007150785</v>
+        <v>0.05964753124485191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06226622895950132</v>
+        <v>0.06426866280291516</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05925008403530422</v>
+        <v>0.05919107196410619</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1120743321798521</v>
+        <v>0.1085502466127402</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08604031452447088</v>
+        <v>0.08541050853293466</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0631130946214889</v>
+        <v>0.06450934952957675</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03903591020323324</v>
+        <v>0.03908070431443604</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07912455760491986</v>
+        <v>0.08098671806100252</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06597747025683083</v>
+        <v>0.06597291719903313</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05821792458432964</v>
+        <v>0.05709750367422421</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.07490021768403887</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08338321252116278</v>
+        <v>0.08338321252116282</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04307846893725517</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0178474408144305</v>
+        <v>0.01710065981045882</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0240994961708797</v>
+        <v>0.0243924733690289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0243407469345789</v>
+        <v>0.02279838369531999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04688683941701984</v>
+        <v>0.04610623055072007</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03416531397328239</v>
+        <v>0.03458940884968659</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07062050328727049</v>
+        <v>0.07069170220877018</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05217468651450329</v>
+        <v>0.05527148223555663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06736120036866704</v>
+        <v>0.06670767481022206</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02972273450415615</v>
+        <v>0.03077874061892548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05268223207322711</v>
+        <v>0.05383064444418534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04358199993430965</v>
+        <v>0.0439911610399053</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06162820132297286</v>
+        <v>0.06218056679957749</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0557260416237257</v>
+        <v>0.0541272399200989</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06385793279639226</v>
+        <v>0.06281923081580934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06258406417570093</v>
+        <v>0.06254972047542043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08638566119732438</v>
+        <v>0.08354946250913918</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07746751135195173</v>
+        <v>0.07762363761564312</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1280504375676783</v>
+        <v>0.1271605914933566</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1015273776535321</v>
+        <v>0.1049760059877621</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1035741852465725</v>
+        <v>0.1023368736994111</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05872027241860216</v>
+        <v>0.06024845902885971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08719848795515182</v>
+        <v>0.08854016746155355</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07582718211113515</v>
+        <v>0.07640507398586124</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08771347849244418</v>
+        <v>0.08735937368006703</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03902679980794176</v>
+        <v>0.03878158508238221</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05348756129045687</v>
+        <v>0.05208797309656817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02175854541072765</v>
+        <v>0.0231028210614057</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05281428015410292</v>
+        <v>0.05093503172106297</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06053862518383756</v>
+        <v>0.05825669172795265</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.127564774865622</v>
+        <v>0.1244966061540546</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03986030058083291</v>
+        <v>0.03804350457798462</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07088038258443877</v>
+        <v>0.06969906084579951</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05561031663531778</v>
+        <v>0.05809368009018024</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09892164566768563</v>
+        <v>0.1020804425958749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03576836433777376</v>
+        <v>0.03679085740026158</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06603626495379888</v>
+        <v>0.06679384324399888</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09530871965758182</v>
+        <v>0.09297265415382772</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1248063868420624</v>
+        <v>0.1179189958678694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06780386300033048</v>
+        <v>0.06889574403301216</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09526293460740881</v>
+        <v>0.09244169559547634</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1211862842461526</v>
+        <v>0.115082767173032</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2063540770088037</v>
+        <v>0.2058261408802471</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09143756493152314</v>
+        <v>0.0890581356356423</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1107286694917123</v>
+        <v>0.1115401903694296</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0949173733961773</v>
+        <v>0.09892770969993313</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1524678927482436</v>
+        <v>0.1541085163094943</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07118266863654013</v>
+        <v>0.07174430085592125</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09564458562725489</v>
+        <v>0.0982058883788282</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06810234890935003</v>
+        <v>0.05999896422386817</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09491436064768373</v>
+        <v>0.09418561043785517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06175374590375922</v>
+        <v>0.0597436771225672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1046739554875178</v>
+        <v>0.1025392820202486</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09322900013946316</v>
+        <v>0.09575559469903765</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2051041024383049</v>
+        <v>0.2083574195167854</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1145783997568375</v>
+        <v>0.1121067388081589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2204193170384528</v>
+        <v>0.2203305386737887</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09375304574782027</v>
+        <v>0.08952193112632738</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.175040632754369</v>
+        <v>0.1748209865954251</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1012170982978702</v>
+        <v>0.1016013944294556</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1826822169075647</v>
+        <v>0.1830299169448769</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1509655613715963</v>
+        <v>0.14573312293087</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1881876946642193</v>
+        <v>0.1873761811138182</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1261790146648382</v>
+        <v>0.1281302385880447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1681147548367381</v>
+        <v>0.1646255615684383</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1715151852618318</v>
+        <v>0.1711598397112168</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.297198649013294</v>
+        <v>0.3062705442963889</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1979314243221546</v>
+        <v>0.195473053431222</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2810319133915833</v>
+        <v>0.2804770121477426</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.147975089932403</v>
+        <v>0.149429836975948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2430772978115988</v>
+        <v>0.2440453450009974</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1593532515710922</v>
+        <v>0.1569883139488355</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2264726002045995</v>
+        <v>0.2273190718483984</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.03465013591691826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.04850047052032394</v>
@@ -1637,7 +1637,7 @@
         <v>0.0552846470732063</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04031159862993554</v>
@@ -1649,7 +1649,7 @@
         <v>0.04518485086007707</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="28">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4524</v>
+        <v>5016</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5378</v>
+        <v>5949</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2023,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5945</v>
+        <v>6613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3973</v>
+        <v>3959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2118</v>
+        <v>2058</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13296</v>
+        <v>13021</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12618</v>
+        <v>12216</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3079</v>
+        <v>2939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1331</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18582</v>
+        <v>19358</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18855</v>
+        <v>19657</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4883</v>
+        <v>5173</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18343</v>
+        <v>18752</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20212</v>
+        <v>20137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17380</v>
+        <v>16276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12292</v>
+        <v>13303</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5481</v>
+        <v>7435</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31751</v>
+        <v>33239</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30564</v>
+        <v>30208</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15223</v>
+        <v>13976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18248</v>
+        <v>19097</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4065</v>
+        <v>4448</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8816</v>
+        <v>8760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5775</v>
+        <v>5641</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11504</v>
+        <v>11691</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7938</v>
+        <v>8224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16639</v>
+        <v>16192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4102</v>
+        <v>4027</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9451</v>
+        <v>9387</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15598</v>
+        <v>15271</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>28471</v>
+        <v>29611</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12939</v>
+        <v>12439</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>24574</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17237</v>
+        <v>17007</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25872</v>
+        <v>25688</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19113</v>
+        <v>18732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35146</v>
+        <v>36457</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24714</v>
+        <v>25420</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35412</v>
+        <v>37318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16568</v>
+        <v>16579</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26762</v>
+        <v>26087</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35383</v>
+        <v>36273</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>54706</v>
+        <v>55267</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30456</v>
+        <v>31459</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>53397</v>
+        <v>54953</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16526</v>
+        <v>16927</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17884</v>
+        <v>18872</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14083</v>
+        <v>14057</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11649</v>
+        <v>11769</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14385</v>
+        <v>14857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34712</v>
+        <v>34163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10908</v>
+        <v>11356</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12331</v>
+        <v>11417</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35221</v>
+        <v>36640</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>59964</v>
+        <v>59225</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29171</v>
+        <v>28098</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27031</v>
+        <v>28615</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37745</v>
+        <v>37747</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39810</v>
+        <v>40651</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34215</v>
+        <v>34091</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30478</v>
+        <v>29710</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33080</v>
+        <v>33061</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62989</v>
+        <v>63514</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28805</v>
+        <v>28910</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26005</v>
+        <v>26299</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64423</v>
+        <v>64979</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94456</v>
+        <v>93663</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57252</v>
+        <v>55957</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>50488</v>
+        <v>50218</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3009</v>
+        <v>2837</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16458</v>
+        <v>16516</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17640</v>
+        <v>16200</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20124</v>
+        <v>20101</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12428</v>
+        <v>13214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39677</v>
+        <v>38666</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29485</v>
+        <v>29652</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27268</v>
+        <v>28457</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18775</v>
+        <v>19598</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>61311</v>
+        <v>61651</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51677</v>
+        <v>52774</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>52603</v>
+        <v>51304</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16230</v>
+        <v>15713</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39132</v>
+        <v>38819</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40084</v>
+        <v>38535</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43567</v>
+        <v>44968</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30552</v>
+        <v>30521</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>69060</v>
+        <v>66889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>55756</v>
+        <v>55348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>46429</v>
+        <v>47456</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40394</v>
+        <v>40440</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>97388</v>
+        <v>99680</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>85380</v>
+        <v>85374</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83562</v>
+        <v>81954</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6902</v>
+        <v>6613</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10324</v>
+        <v>10450</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11633</v>
+        <v>10896</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28520</v>
+        <v>28045</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13802</v>
+        <v>13974</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31624</v>
+        <v>31656</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>25923</v>
+        <v>27462</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40967</v>
+        <v>40570</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23502</v>
+        <v>24337</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>46160</v>
+        <v>47166</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>42482</v>
+        <v>42881</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>74967</v>
+        <v>75639</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21550</v>
+        <v>20932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27357</v>
+        <v>26912</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29910</v>
+        <v>29894</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52545</v>
+        <v>50820</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31296</v>
+        <v>31359</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57341</v>
+        <v>56943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>50444</v>
+        <v>52157</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>62991</v>
+        <v>62238</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46430</v>
+        <v>47638</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>76403</v>
+        <v>77579</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73914</v>
+        <v>74477</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>106698</v>
+        <v>106267</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11419</v>
+        <v>11347</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16570</v>
+        <v>16136</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7275</v>
+        <v>7724</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21412</v>
+        <v>20650</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20761</v>
+        <v>19978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>45157</v>
+        <v>44071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15058</v>
+        <v>14371</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>31128</v>
+        <v>30609</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>35341</v>
+        <v>36920</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>65662</v>
+        <v>67759</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>25470</v>
+        <v>26198</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>55774</v>
+        <v>56413</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27886</v>
+        <v>27202</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>38663</v>
+        <v>36530</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22669</v>
+        <v>23034</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>38622</v>
+        <v>37478</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41559</v>
+        <v>39466</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>73049</v>
+        <v>72862</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>34542</v>
+        <v>33643</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48628</v>
+        <v>48985</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>60322</v>
+        <v>62870</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>101205</v>
+        <v>102294</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>50689</v>
+        <v>51089</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>80780</v>
+        <v>82944</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14294</v>
+        <v>12593</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23623</v>
+        <v>23441</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15871</v>
+        <v>15354</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>32470</v>
+        <v>31807</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>31130</v>
+        <v>31974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>79556</v>
+        <v>80818</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>45705</v>
+        <v>44719</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>101925</v>
+        <v>101884</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>50982</v>
+        <v>48681</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>111460</v>
+        <v>111320</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>66388</v>
+        <v>66640</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>141142</v>
+        <v>141411</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31685</v>
+        <v>30587</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>46837</v>
+        <v>46635</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>32428</v>
+        <v>32929</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>52149</v>
+        <v>51067</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>57270</v>
+        <v>57152</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>115278</v>
+        <v>118797</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>78954</v>
+        <v>77974</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>129953</v>
+        <v>129696</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>80468</v>
+        <v>81259</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>154784</v>
+        <v>155400</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>104519</v>
+        <v>102968</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>174975</v>
+        <v>175629</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
     </row>
     <row r="36">
